--- a/CheckList6v (1).xlsx
+++ b/CheckList6v (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18557" windowHeight="6643" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18557" windowHeight="6643" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 Intructions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>#Tab</t>
   </si>
@@ -370,6 +370,60 @@
   <si>
     <t xml:space="preserve">Nos complamos bien al momento de trabajar y de </t>
   </si>
+  <si>
+    <t>No hacia ping a la granja de servidores</t>
+  </si>
+  <si>
+    <t>El dhcp no funcionaba</t>
+  </si>
+  <si>
+    <t>estaba configurando mal el gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El etherchannel no estaba funcionando </t>
+  </si>
+  <si>
+    <t>debug de cisco</t>
+  </si>
+  <si>
+    <t>no funcionaba DNS</t>
+  </si>
+  <si>
+    <t>estaba configurando mal la ip del servidor</t>
+  </si>
+  <si>
+    <t>no supe</t>
+  </si>
+  <si>
+    <t>reiniciando</t>
+  </si>
+  <si>
+    <t>no supimos pero se soluciono</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>No se enrutaba</t>
+  </si>
+  <si>
+    <t>mal configurado el salt</t>
+  </si>
+  <si>
+    <t>No saber donde configurar truncales en el lado izquierdo(HQ)</t>
+  </si>
+  <si>
+    <t>leyendo de nuevo la teoria</t>
+  </si>
+  <si>
+    <t>No saber como usar SSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buscando videos </t>
+  </si>
+  <si>
+    <t>No saber como funcioana el DNS, bueno configurarlo</t>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -695,11 +749,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,7 +920,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -875,9 +943,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4615,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4624,7 +4708,7 @@
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="69" customWidth="1"/>
     <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
@@ -5024,7 +5108,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="65"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="33"/>
       <c r="F14" s="12"/>
       <c r="H14" s="34"/>
@@ -5748,7 +5832,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="45"/>
-      <c r="D38" s="66"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="45"/>
       <c r="F38" s="12"/>
       <c r="H38" s="12"/>
@@ -5831,7 +5915,7 @@
       <c r="C41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="14"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -5858,7 +5942,7 @@
       <c r="C42" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="68">
+      <c r="D42" s="67">
         <v>3</v>
       </c>
       <c r="E42" s="48"/>
@@ -5891,7 +5975,7 @@
       <c r="C43" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="68">
+      <c r="D43" s="67">
         <v>3</v>
       </c>
       <c r="E43" s="48"/>
@@ -5948,7 +6032,7 @@
       <c r="C45" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="14"/>
       <c r="F45" s="11"/>
       <c r="H45" s="11"/>
@@ -5981,7 +6065,9 @@
         <v>10</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="36"/>
+      <c r="F46" s="36">
+        <v>10</v>
+      </c>
       <c r="H46" s="38"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -6012,7 +6098,9 @@
         <v>5</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="36">
+        <v>5</v>
+      </c>
       <c r="H47" s="38"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -6099,7 +6187,9 @@
         <v>5</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="36">
+        <v>5</v>
+      </c>
       <c r="H50" s="38"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -6130,7 +6220,9 @@
         <v>2</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="36"/>
+      <c r="F51" s="36">
+        <v>2</v>
+      </c>
       <c r="H51" s="38"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -6217,7 +6309,9 @@
         <v>3</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="36"/>
+      <c r="F54" s="36">
+        <v>3</v>
+      </c>
       <c r="H54" s="38"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -6248,7 +6342,9 @@
         <v>3</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="36"/>
+      <c r="F55" s="36">
+        <v>3</v>
+      </c>
       <c r="H55" s="38"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -6279,7 +6375,9 @@
         <v>3</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="36"/>
+      <c r="F56" s="36">
+        <v>3</v>
+      </c>
       <c r="H56" s="38"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -6475,7 +6573,9 @@
         <v>2</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="36"/>
+      <c r="F63" s="36">
+        <v>2</v>
+      </c>
       <c r="H63" s="49"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -6679,7 +6779,9 @@
         <v>5</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="36"/>
+      <c r="F70" s="36">
+        <v>5</v>
+      </c>
       <c r="H70" s="38"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
@@ -6710,7 +6812,9 @@
         <v>5</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="36"/>
+      <c r="F71" s="36">
+        <v>5</v>
+      </c>
       <c r="H71" s="38"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
@@ -6741,7 +6845,9 @@
         <v>5</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="36"/>
+      <c r="F72" s="36">
+        <v>5</v>
+      </c>
       <c r="H72" s="38"/>
       <c r="I72" s="11"/>
       <c r="J72" s="56" t="s">
@@ -6799,7 +6905,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="57">
         <f>SUM(F15:F72)</f>
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="H74" s="57">
         <f>SUM(H15:H72)</f>
@@ -6940,7 +7046,7 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="59"/>
-      <c r="D79" s="69"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="59"/>
       <c r="F79" s="12"/>
       <c r="H79" s="11"/>
@@ -7021,7 +7127,7 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="60"/>
-      <c r="D82" s="69"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="60"/>
       <c r="F82" s="12"/>
       <c r="H82" s="11"/>
@@ -31842,16 +31948,16 @@
   <dimension ref="B3:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.125" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="26" width="11.375" customWidth="1"/>
   </cols>
@@ -31862,92 +31968,242 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="72" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="70">
         <v>1</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="74" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="70">
         <v>2</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="74" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="B9" s="70">
         <v>3</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="74" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10" s="70">
         <v>4</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="70">
+        <v>5</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="70">
+        <v>6</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70">
+        <v>7</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="70">
+        <v>8</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="70">
+        <v>9</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="70">
+        <v>10</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="70">
+        <v>11</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="70">
+        <v>12</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="70">
+        <v>13</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="70">
+        <v>14</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32926,7 +33182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D23" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
@@ -32940,7 +33196,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:9" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>62</v>
       </c>
     </row>
@@ -32992,7 +33248,7 @@
       <c r="D15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="62" t="s">
         <v>68</v>
       </c>
     </row>
@@ -34031,7 +34287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -34080,7 +34336,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>77</v>
       </c>
       <c r="I8" t="s">
@@ -34088,17 +34344,17 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.05" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>77</v>
       </c>
     </row>
